--- a/biology/Zoologie/Choucador_pourpré/Choucador_pourpré.xlsx
+++ b/biology/Zoologie/Choucador_pourpré/Choucador_pourpré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choucador_pourpr%C3%A9</t>
+          <t>Choucador_pourpré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprotornis purpureus
 Le Choucador pourpré (Lamprotornis purpureus) est une espèce de passereaux de la famille des Sturnidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choucador_pourpr%C3%A9</t>
+          <t>Choucador_pourpré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un oiseau sédentaire résidant en Afrique tropicale, du Sénégal et du nord du Zaïre au Soudan et à l'ouest du Kenya.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choucador_pourpr%C3%A9</t>
+          <t>Choucador_pourpré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve généralement dans les savanes boisées et les champs. Il construit son nid dans un trou.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choucador_pourpr%C3%A9</t>
+          <t>Choucador_pourpré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La couvée normale est de deux œufs.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choucador_pourpr%C3%A9</t>
+          <t>Choucador_pourpré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau grégaire et bruyant, avec des grincements et bavardages typiques des étourneaux.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choucador_pourpr%C3%A9</t>
+          <t>Choucador_pourpré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes trapus mesurent 22 à 23 cm de long et ont une tête et le corps métallique violet, les ailes vertes et luisantes. Ils ont une queue courte et un œil jaune. Les deux sexes sont similaires mais les jeunes sont beaucoup plus ternes, avec le ventre gris et un iris brun.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Choucador_pourpr%C3%A9</t>
+          <t>Choucador_pourpré</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la plupart des étourneaux, il est assez omnivore, mangeant des fruits et des insectes.
 </t>
